--- a/Sprint_0/04_Historia_Usuario.xlsx
+++ b/Sprint_0/04_Historia_Usuario.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Desktop\mintic\ciclo 3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Desktop\mintic\ciclo 3\Sprint_0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4F4C1B9D-7323-4C79-BD7F-C4B92946ADB0}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1C84323-56FD-43D6-8A63-4B054A80ABD5}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15996" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -265,16 +265,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -286,13 +276,10 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="12" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -312,6 +299,19 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -544,198 +544,198 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
     </row>
     <row r="2" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
     </row>
     <row r="3" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
+      <c r="A3" s="14"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
     </row>
     <row r="4" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="18">
         <v>1</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="7" t="s">
+      <c r="C4" s="15"/>
+      <c r="D4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="3"/>
+      <c r="F4" s="15"/>
     </row>
     <row r="5" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
+      <c r="A5" s="14"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
     </row>
     <row r="6" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="18"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="13"/>
     </row>
     <row r="7" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="11" t="s">
+      <c r="C7" s="7"/>
+      <c r="D7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="10"/>
+      <c r="F7" s="7"/>
     </row>
     <row r="8" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="11" t="s">
+      <c r="C8" s="7"/>
+      <c r="D8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="8">
         <v>1</v>
       </c>
-      <c r="F8" s="10"/>
+      <c r="F8" s="7"/>
     </row>
     <row r="9" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="11" t="s">
+      <c r="C9" s="7"/>
+      <c r="D9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9" s="8">
         <v>1</v>
       </c>
-      <c r="F9" s="10"/>
+      <c r="F9" s="7"/>
     </row>
     <row r="10" spans="1:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
     </row>
     <row r="11" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
     </row>
     <row r="12" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
     </row>
     <row r="13" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
     </row>
     <row r="14" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
     </row>
     <row r="15" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
     </row>
     <row r="16" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A16" s="15"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
     </row>
     <row r="17" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A17" s="15"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
     </row>
     <row r="18" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A18" s="15"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
     </row>
     <row r="19" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A19" s="15"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
     </row>
     <row r="20" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
@@ -746,1417 +746,1377 @@
       <c r="F20" s="1"/>
     </row>
     <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
     </row>
     <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
+      <c r="A24" s="15"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
     </row>
     <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
+      <c r="A25" s="14"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
     </row>
     <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B26" s="6">
+      <c r="B26" s="18">
         <v>2</v>
       </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="7" t="s">
+      <c r="C26" s="15"/>
+      <c r="D26" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E26" s="6" t="s">
+      <c r="E26" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="3"/>
+      <c r="F26" s="15"/>
     </row>
     <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
+      <c r="A27" s="14"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
     </row>
     <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="8" t="s">
+      <c r="A28" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B28" s="16" t="s">
+      <c r="B28" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="18"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="13"/>
     </row>
     <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="8" t="s">
+      <c r="A29" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C29" s="10"/>
-      <c r="D29" s="11" t="s">
+      <c r="C29" s="7"/>
+      <c r="D29" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E29" s="12" t="s">
+      <c r="E29" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="F29" s="10"/>
+      <c r="F29" s="7"/>
     </row>
     <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="8" t="s">
+      <c r="A30" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C30" s="10"/>
-      <c r="D30" s="11" t="s">
+      <c r="C30" s="7"/>
+      <c r="D30" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E30" s="13">
+      <c r="E30" s="8">
         <v>1</v>
       </c>
-      <c r="F30" s="10"/>
+      <c r="F30" s="7"/>
     </row>
     <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C31" s="10"/>
-      <c r="D31" s="11" t="s">
+      <c r="C31" s="7"/>
+      <c r="D31" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E31" s="13">
+      <c r="E31" s="8">
         <v>1</v>
       </c>
-      <c r="F31" s="10"/>
+      <c r="F31" s="7"/>
     </row>
     <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="14" t="s">
+      <c r="A32" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
     </row>
     <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="14"/>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
+      <c r="A33" s="9"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
     </row>
     <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="14"/>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
+      <c r="A34" s="9"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
     </row>
     <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="14"/>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
+      <c r="A35" s="9"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
     </row>
     <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="14"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
+      <c r="A36" s="9"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
     </row>
     <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="15" t="s">
+      <c r="A37" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B37" s="15"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
-      <c r="F37" s="15"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
     </row>
     <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="15"/>
-      <c r="B38" s="15"/>
-      <c r="C38" s="15"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="15"/>
+      <c r="A38" s="10"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
     </row>
     <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="15"/>
-      <c r="B39" s="15"/>
-      <c r="C39" s="15"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="15"/>
-      <c r="F39" s="15"/>
+      <c r="A39" s="10"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
     </row>
     <row r="40" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="15"/>
-      <c r="B40" s="15"/>
-      <c r="C40" s="15"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="15"/>
-      <c r="F40" s="15"/>
+      <c r="A40" s="10"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
     </row>
     <row r="41" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="15"/>
-      <c r="B41" s="15"/>
-      <c r="C41" s="15"/>
-      <c r="D41" s="15"/>
-      <c r="E41" s="15"/>
-      <c r="F41" s="15"/>
+      <c r="A41" s="10"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
     </row>
     <row r="45" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
+      <c r="A45" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
+      <c r="B45" s="15"/>
+      <c r="C45" s="15"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="15"/>
     </row>
     <row r="46" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="3"/>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
+      <c r="A46" s="15"/>
+      <c r="B46" s="15"/>
+      <c r="C46" s="15"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="15"/>
     </row>
     <row r="47" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="4"/>
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
+      <c r="A47" s="14"/>
+      <c r="B47" s="15"/>
+      <c r="C47" s="15"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="15"/>
+      <c r="F47" s="15"/>
     </row>
     <row r="48" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="5" t="s">
+      <c r="A48" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B48" s="6">
+      <c r="B48" s="18">
         <v>3</v>
       </c>
-      <c r="C48" s="3"/>
-      <c r="D48" s="7" t="s">
+      <c r="C48" s="15"/>
+      <c r="D48" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E48" s="6" t="s">
+      <c r="E48" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="F48" s="3"/>
+      <c r="F48" s="15"/>
     </row>
     <row r="49" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="4"/>
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
+      <c r="A49" s="14"/>
+      <c r="B49" s="15"/>
+      <c r="C49" s="15"/>
+      <c r="D49" s="15"/>
+      <c r="E49" s="15"/>
+      <c r="F49" s="15"/>
     </row>
     <row r="50" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="8" t="s">
+      <c r="A50" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B50" s="16" t="s">
+      <c r="B50" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C50" s="17"/>
-      <c r="D50" s="17"/>
-      <c r="E50" s="17"/>
-      <c r="F50" s="18"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="13"/>
     </row>
     <row r="51" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="8" t="s">
+      <c r="A51" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B51" s="9" t="s">
+      <c r="B51" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C51" s="10"/>
-      <c r="D51" s="11" t="s">
+      <c r="C51" s="7"/>
+      <c r="D51" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E51" s="12" t="s">
+      <c r="E51" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="F51" s="10"/>
+      <c r="F51" s="7"/>
     </row>
     <row r="52" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="8" t="s">
+      <c r="A52" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B52" s="9" t="s">
+      <c r="B52" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C52" s="10"/>
-      <c r="D52" s="11" t="s">
+      <c r="C52" s="7"/>
+      <c r="D52" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E52" s="13">
+      <c r="E52" s="8">
         <v>0.5</v>
       </c>
-      <c r="F52" s="10"/>
+      <c r="F52" s="7"/>
     </row>
     <row r="53" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="8" t="s">
+      <c r="A53" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B53" s="9" t="s">
+      <c r="B53" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C53" s="10"/>
-      <c r="D53" s="11" t="s">
+      <c r="C53" s="7"/>
+      <c r="D53" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E53" s="13">
+      <c r="E53" s="8">
         <v>0.5</v>
       </c>
-      <c r="F53" s="10"/>
+      <c r="F53" s="7"/>
     </row>
     <row r="54" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="14" t="s">
+      <c r="A54" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B54" s="14"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
+      <c r="B54" s="9"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9"/>
     </row>
     <row r="55" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="14"/>
-      <c r="B55" s="14"/>
-      <c r="C55" s="14"/>
-      <c r="D55" s="14"/>
-      <c r="E55" s="14"/>
-      <c r="F55" s="14"/>
+      <c r="A55" s="9"/>
+      <c r="B55" s="9"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="9"/>
     </row>
     <row r="56" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="14"/>
-      <c r="B56" s="14"/>
-      <c r="C56" s="14"/>
-      <c r="D56" s="14"/>
-      <c r="E56" s="14"/>
-      <c r="F56" s="14"/>
+      <c r="A56" s="9"/>
+      <c r="B56" s="9"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="9"/>
     </row>
     <row r="57" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="14"/>
-      <c r="B57" s="14"/>
-      <c r="C57" s="14"/>
-      <c r="D57" s="14"/>
-      <c r="E57" s="14"/>
-      <c r="F57" s="14"/>
+      <c r="A57" s="9"/>
+      <c r="B57" s="9"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9"/>
     </row>
     <row r="58" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="14"/>
-      <c r="B58" s="14"/>
-      <c r="C58" s="14"/>
-      <c r="D58" s="14"/>
-      <c r="E58" s="14"/>
-      <c r="F58" s="14"/>
+      <c r="A58" s="9"/>
+      <c r="B58" s="9"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="9"/>
     </row>
     <row r="59" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="15" t="s">
+      <c r="A59" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B59" s="15"/>
-      <c r="C59" s="15"/>
-      <c r="D59" s="15"/>
-      <c r="E59" s="15"/>
-      <c r="F59" s="15"/>
+      <c r="B59" s="10"/>
+      <c r="C59" s="10"/>
+      <c r="D59" s="10"/>
+      <c r="E59" s="10"/>
+      <c r="F59" s="10"/>
     </row>
     <row r="60" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="15"/>
-      <c r="B60" s="15"/>
-      <c r="C60" s="15"/>
-      <c r="D60" s="15"/>
-      <c r="E60" s="15"/>
-      <c r="F60" s="15"/>
+      <c r="A60" s="10"/>
+      <c r="B60" s="10"/>
+      <c r="C60" s="10"/>
+      <c r="D60" s="10"/>
+      <c r="E60" s="10"/>
+      <c r="F60" s="10"/>
     </row>
     <row r="61" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="15"/>
-      <c r="B61" s="15"/>
-      <c r="C61" s="15"/>
-      <c r="D61" s="15"/>
-      <c r="E61" s="15"/>
-      <c r="F61" s="15"/>
+      <c r="A61" s="10"/>
+      <c r="B61" s="10"/>
+      <c r="C61" s="10"/>
+      <c r="D61" s="10"/>
+      <c r="E61" s="10"/>
+      <c r="F61" s="10"/>
     </row>
     <row r="62" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="15"/>
-      <c r="B62" s="15"/>
-      <c r="C62" s="15"/>
-      <c r="D62" s="15"/>
-      <c r="E62" s="15"/>
-      <c r="F62" s="15"/>
+      <c r="A62" s="10"/>
+      <c r="B62" s="10"/>
+      <c r="C62" s="10"/>
+      <c r="D62" s="10"/>
+      <c r="E62" s="10"/>
+      <c r="F62" s="10"/>
     </row>
     <row r="63" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="15"/>
-      <c r="B63" s="15"/>
-      <c r="C63" s="15"/>
-      <c r="D63" s="15"/>
-      <c r="E63" s="15"/>
-      <c r="F63" s="15"/>
+      <c r="A63" s="10"/>
+      <c r="B63" s="10"/>
+      <c r="C63" s="10"/>
+      <c r="D63" s="10"/>
+      <c r="E63" s="10"/>
+      <c r="F63" s="10"/>
     </row>
     <row r="67" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="2" t="s">
+      <c r="A67" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B67" s="3"/>
-      <c r="C67" s="3"/>
-      <c r="D67" s="3"/>
-      <c r="E67" s="3"/>
-      <c r="F67" s="3"/>
+      <c r="B67" s="15"/>
+      <c r="C67" s="15"/>
+      <c r="D67" s="15"/>
+      <c r="E67" s="15"/>
+      <c r="F67" s="15"/>
     </row>
     <row r="68" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="3"/>
-      <c r="B68" s="3"/>
-      <c r="C68" s="3"/>
-      <c r="D68" s="3"/>
-      <c r="E68" s="3"/>
-      <c r="F68" s="3"/>
+      <c r="A68" s="15"/>
+      <c r="B68" s="15"/>
+      <c r="C68" s="15"/>
+      <c r="D68" s="15"/>
+      <c r="E68" s="15"/>
+      <c r="F68" s="15"/>
     </row>
     <row r="69" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="4"/>
-      <c r="B69" s="3"/>
-      <c r="C69" s="3"/>
-      <c r="D69" s="3"/>
-      <c r="E69" s="3"/>
-      <c r="F69" s="3"/>
+      <c r="A69" s="14"/>
+      <c r="B69" s="15"/>
+      <c r="C69" s="15"/>
+      <c r="D69" s="15"/>
+      <c r="E69" s="15"/>
+      <c r="F69" s="15"/>
     </row>
     <row r="70" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="5" t="s">
+      <c r="A70" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B70" s="6">
+      <c r="B70" s="18">
         <v>4</v>
       </c>
-      <c r="C70" s="3"/>
-      <c r="D70" s="7" t="s">
+      <c r="C70" s="15"/>
+      <c r="D70" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E70" s="6" t="s">
+      <c r="E70" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="F70" s="3"/>
+      <c r="F70" s="15"/>
     </row>
     <row r="71" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="4"/>
-      <c r="B71" s="3"/>
-      <c r="C71" s="3"/>
-      <c r="D71" s="3"/>
-      <c r="E71" s="3"/>
-      <c r="F71" s="3"/>
+      <c r="A71" s="14"/>
+      <c r="B71" s="15"/>
+      <c r="C71" s="15"/>
+      <c r="D71" s="15"/>
+      <c r="E71" s="15"/>
+      <c r="F71" s="15"/>
     </row>
     <row r="72" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="8" t="s">
+      <c r="A72" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B72" s="16" t="s">
+      <c r="B72" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C72" s="17"/>
-      <c r="D72" s="17"/>
-      <c r="E72" s="17"/>
-      <c r="F72" s="18"/>
+      <c r="C72" s="12"/>
+      <c r="D72" s="12"/>
+      <c r="E72" s="12"/>
+      <c r="F72" s="13"/>
     </row>
     <row r="73" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="8" t="s">
+      <c r="A73" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B73" s="9" t="s">
+      <c r="B73" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C73" s="10"/>
-      <c r="D73" s="11" t="s">
+      <c r="C73" s="7"/>
+      <c r="D73" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E73" s="12" t="s">
+      <c r="E73" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="F73" s="10"/>
+      <c r="F73" s="7"/>
     </row>
     <row r="74" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="8" t="s">
+      <c r="A74" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B74" s="9" t="s">
+      <c r="B74" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C74" s="10"/>
-      <c r="D74" s="11" t="s">
+      <c r="C74" s="7"/>
+      <c r="D74" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E74" s="13">
+      <c r="E74" s="8">
         <v>1</v>
       </c>
-      <c r="F74" s="10"/>
+      <c r="F74" s="7"/>
     </row>
     <row r="75" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="8" t="s">
+      <c r="A75" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B75" s="9" t="s">
+      <c r="B75" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C75" s="10"/>
-      <c r="D75" s="11" t="s">
+      <c r="C75" s="7"/>
+      <c r="D75" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E75" s="13">
+      <c r="E75" s="8">
         <v>1</v>
       </c>
-      <c r="F75" s="10"/>
+      <c r="F75" s="7"/>
     </row>
     <row r="76" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="14" t="s">
+      <c r="A76" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B76" s="14"/>
-      <c r="C76" s="14"/>
-      <c r="D76" s="14"/>
-      <c r="E76" s="14"/>
-      <c r="F76" s="14"/>
+      <c r="B76" s="9"/>
+      <c r="C76" s="9"/>
+      <c r="D76" s="9"/>
+      <c r="E76" s="9"/>
+      <c r="F76" s="9"/>
     </row>
     <row r="77" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="14"/>
-      <c r="B77" s="14"/>
-      <c r="C77" s="14"/>
-      <c r="D77" s="14"/>
-      <c r="E77" s="14"/>
-      <c r="F77" s="14"/>
+      <c r="A77" s="9"/>
+      <c r="B77" s="9"/>
+      <c r="C77" s="9"/>
+      <c r="D77" s="9"/>
+      <c r="E77" s="9"/>
+      <c r="F77" s="9"/>
     </row>
     <row r="78" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="14"/>
-      <c r="B78" s="14"/>
-      <c r="C78" s="14"/>
-      <c r="D78" s="14"/>
-      <c r="E78" s="14"/>
-      <c r="F78" s="14"/>
+      <c r="A78" s="9"/>
+      <c r="B78" s="9"/>
+      <c r="C78" s="9"/>
+      <c r="D78" s="9"/>
+      <c r="E78" s="9"/>
+      <c r="F78" s="9"/>
     </row>
     <row r="79" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="14"/>
-      <c r="B79" s="14"/>
-      <c r="C79" s="14"/>
-      <c r="D79" s="14"/>
-      <c r="E79" s="14"/>
-      <c r="F79" s="14"/>
+      <c r="A79" s="9"/>
+      <c r="B79" s="9"/>
+      <c r="C79" s="9"/>
+      <c r="D79" s="9"/>
+      <c r="E79" s="9"/>
+      <c r="F79" s="9"/>
     </row>
     <row r="80" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="14"/>
-      <c r="B80" s="14"/>
-      <c r="C80" s="14"/>
-      <c r="D80" s="14"/>
-      <c r="E80" s="14"/>
-      <c r="F80" s="14"/>
+      <c r="A80" s="9"/>
+      <c r="B80" s="9"/>
+      <c r="C80" s="9"/>
+      <c r="D80" s="9"/>
+      <c r="E80" s="9"/>
+      <c r="F80" s="9"/>
     </row>
     <row r="81" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="15" t="s">
+      <c r="A81" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B81" s="15"/>
-      <c r="C81" s="15"/>
-      <c r="D81" s="15"/>
-      <c r="E81" s="15"/>
-      <c r="F81" s="15"/>
+      <c r="B81" s="10"/>
+      <c r="C81" s="10"/>
+      <c r="D81" s="10"/>
+      <c r="E81" s="10"/>
+      <c r="F81" s="10"/>
     </row>
     <row r="82" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="15"/>
-      <c r="B82" s="15"/>
-      <c r="C82" s="15"/>
-      <c r="D82" s="15"/>
-      <c r="E82" s="15"/>
-      <c r="F82" s="15"/>
+      <c r="A82" s="10"/>
+      <c r="B82" s="10"/>
+      <c r="C82" s="10"/>
+      <c r="D82" s="10"/>
+      <c r="E82" s="10"/>
+      <c r="F82" s="10"/>
     </row>
     <row r="83" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="15"/>
-      <c r="B83" s="15"/>
-      <c r="C83" s="15"/>
-      <c r="D83" s="15"/>
-      <c r="E83" s="15"/>
-      <c r="F83" s="15"/>
+      <c r="A83" s="10"/>
+      <c r="B83" s="10"/>
+      <c r="C83" s="10"/>
+      <c r="D83" s="10"/>
+      <c r="E83" s="10"/>
+      <c r="F83" s="10"/>
     </row>
     <row r="84" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="15"/>
-      <c r="B84" s="15"/>
-      <c r="C84" s="15"/>
-      <c r="D84" s="15"/>
-      <c r="E84" s="15"/>
-      <c r="F84" s="15"/>
+      <c r="A84" s="10"/>
+      <c r="B84" s="10"/>
+      <c r="C84" s="10"/>
+      <c r="D84" s="10"/>
+      <c r="E84" s="10"/>
+      <c r="F84" s="10"/>
     </row>
     <row r="85" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="15"/>
-      <c r="B85" s="15"/>
-      <c r="C85" s="15"/>
-      <c r="D85" s="15"/>
-      <c r="E85" s="15"/>
-      <c r="F85" s="15"/>
+      <c r="A85" s="10"/>
+      <c r="B85" s="10"/>
+      <c r="C85" s="10"/>
+      <c r="D85" s="10"/>
+      <c r="E85" s="10"/>
+      <c r="F85" s="10"/>
     </row>
     <row r="89" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="2" t="s">
+      <c r="A89" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B89" s="3"/>
-      <c r="C89" s="3"/>
-      <c r="D89" s="3"/>
-      <c r="E89" s="3"/>
-      <c r="F89" s="3"/>
+      <c r="B89" s="15"/>
+      <c r="C89" s="15"/>
+      <c r="D89" s="15"/>
+      <c r="E89" s="15"/>
+      <c r="F89" s="15"/>
     </row>
     <row r="90" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="3"/>
-      <c r="B90" s="3"/>
-      <c r="C90" s="3"/>
-      <c r="D90" s="3"/>
-      <c r="E90" s="3"/>
-      <c r="F90" s="3"/>
+      <c r="A90" s="15"/>
+      <c r="B90" s="15"/>
+      <c r="C90" s="15"/>
+      <c r="D90" s="15"/>
+      <c r="E90" s="15"/>
+      <c r="F90" s="15"/>
     </row>
     <row r="91" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="4"/>
-      <c r="B91" s="3"/>
-      <c r="C91" s="3"/>
-      <c r="D91" s="3"/>
-      <c r="E91" s="3"/>
-      <c r="F91" s="3"/>
+      <c r="A91" s="14"/>
+      <c r="B91" s="15"/>
+      <c r="C91" s="15"/>
+      <c r="D91" s="15"/>
+      <c r="E91" s="15"/>
+      <c r="F91" s="15"/>
     </row>
     <row r="92" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="5" t="s">
+      <c r="A92" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B92" s="6">
+      <c r="B92" s="18">
         <v>5</v>
       </c>
-      <c r="C92" s="3"/>
-      <c r="D92" s="7" t="s">
+      <c r="C92" s="15"/>
+      <c r="D92" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E92" s="6" t="s">
+      <c r="E92" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="F92" s="3"/>
+      <c r="F92" s="15"/>
     </row>
     <row r="93" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="4"/>
-      <c r="B93" s="3"/>
-      <c r="C93" s="3"/>
-      <c r="D93" s="3"/>
-      <c r="E93" s="3"/>
-      <c r="F93" s="3"/>
+      <c r="A93" s="14"/>
+      <c r="B93" s="15"/>
+      <c r="C93" s="15"/>
+      <c r="D93" s="15"/>
+      <c r="E93" s="15"/>
+      <c r="F93" s="15"/>
     </row>
     <row r="94" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="8" t="s">
+      <c r="A94" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B94" s="16" t="s">
+      <c r="B94" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C94" s="17"/>
-      <c r="D94" s="17"/>
-      <c r="E94" s="17"/>
-      <c r="F94" s="18"/>
+      <c r="C94" s="12"/>
+      <c r="D94" s="12"/>
+      <c r="E94" s="12"/>
+      <c r="F94" s="13"/>
     </row>
     <row r="95" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="8" t="s">
+      <c r="A95" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B95" s="9" t="s">
+      <c r="B95" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C95" s="10"/>
-      <c r="D95" s="11" t="s">
+      <c r="C95" s="7"/>
+      <c r="D95" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E95" s="12" t="s">
+      <c r="E95" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="F95" s="10"/>
+      <c r="F95" s="7"/>
     </row>
     <row r="96" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="8" t="s">
+      <c r="A96" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B96" s="9" t="s">
+      <c r="B96" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C96" s="10"/>
-      <c r="D96" s="11" t="s">
+      <c r="C96" s="7"/>
+      <c r="D96" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E96" s="13">
+      <c r="E96" s="8">
         <v>2</v>
       </c>
-      <c r="F96" s="10"/>
+      <c r="F96" s="7"/>
     </row>
     <row r="97" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="8" t="s">
+      <c r="A97" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B97" s="9" t="s">
+      <c r="B97" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C97" s="10"/>
-      <c r="D97" s="11" t="s">
+      <c r="C97" s="7"/>
+      <c r="D97" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E97" s="13">
+      <c r="E97" s="8">
         <v>2</v>
       </c>
-      <c r="F97" s="10"/>
+      <c r="F97" s="7"/>
     </row>
     <row r="98" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="14" t="s">
+      <c r="A98" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B98" s="14"/>
-      <c r="C98" s="14"/>
-      <c r="D98" s="14"/>
-      <c r="E98" s="14"/>
-      <c r="F98" s="14"/>
+      <c r="B98" s="9"/>
+      <c r="C98" s="9"/>
+      <c r="D98" s="9"/>
+      <c r="E98" s="9"/>
+      <c r="F98" s="9"/>
     </row>
     <row r="99" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="14"/>
-      <c r="B99" s="14"/>
-      <c r="C99" s="14"/>
-      <c r="D99" s="14"/>
-      <c r="E99" s="14"/>
-      <c r="F99" s="14"/>
+      <c r="A99" s="9"/>
+      <c r="B99" s="9"/>
+      <c r="C99" s="9"/>
+      <c r="D99" s="9"/>
+      <c r="E99" s="9"/>
+      <c r="F99" s="9"/>
     </row>
     <row r="100" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="14"/>
-      <c r="B100" s="14"/>
-      <c r="C100" s="14"/>
-      <c r="D100" s="14"/>
-      <c r="E100" s="14"/>
-      <c r="F100" s="14"/>
+      <c r="A100" s="9"/>
+      <c r="B100" s="9"/>
+      <c r="C100" s="9"/>
+      <c r="D100" s="9"/>
+      <c r="E100" s="9"/>
+      <c r="F100" s="9"/>
     </row>
     <row r="101" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="14"/>
-      <c r="B101" s="14"/>
-      <c r="C101" s="14"/>
-      <c r="D101" s="14"/>
-      <c r="E101" s="14"/>
-      <c r="F101" s="14"/>
+      <c r="A101" s="9"/>
+      <c r="B101" s="9"/>
+      <c r="C101" s="9"/>
+      <c r="D101" s="9"/>
+      <c r="E101" s="9"/>
+      <c r="F101" s="9"/>
     </row>
     <row r="102" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="14"/>
-      <c r="B102" s="14"/>
-      <c r="C102" s="14"/>
-      <c r="D102" s="14"/>
-      <c r="E102" s="14"/>
-      <c r="F102" s="14"/>
+      <c r="A102" s="9"/>
+      <c r="B102" s="9"/>
+      <c r="C102" s="9"/>
+      <c r="D102" s="9"/>
+      <c r="E102" s="9"/>
+      <c r="F102" s="9"/>
     </row>
     <row r="103" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="15" t="s">
+      <c r="A103" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B103" s="15"/>
-      <c r="C103" s="15"/>
-      <c r="D103" s="15"/>
-      <c r="E103" s="15"/>
-      <c r="F103" s="15"/>
+      <c r="B103" s="10"/>
+      <c r="C103" s="10"/>
+      <c r="D103" s="10"/>
+      <c r="E103" s="10"/>
+      <c r="F103" s="10"/>
     </row>
     <row r="104" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="15"/>
-      <c r="B104" s="15"/>
-      <c r="C104" s="15"/>
-      <c r="D104" s="15"/>
-      <c r="E104" s="15"/>
-      <c r="F104" s="15"/>
+      <c r="A104" s="10"/>
+      <c r="B104" s="10"/>
+      <c r="C104" s="10"/>
+      <c r="D104" s="10"/>
+      <c r="E104" s="10"/>
+      <c r="F104" s="10"/>
     </row>
     <row r="105" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="15"/>
-      <c r="B105" s="15"/>
-      <c r="C105" s="15"/>
-      <c r="D105" s="15"/>
-      <c r="E105" s="15"/>
-      <c r="F105" s="15"/>
+      <c r="A105" s="10"/>
+      <c r="B105" s="10"/>
+      <c r="C105" s="10"/>
+      <c r="D105" s="10"/>
+      <c r="E105" s="10"/>
+      <c r="F105" s="10"/>
     </row>
     <row r="106" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="15"/>
-      <c r="B106" s="15"/>
-      <c r="C106" s="15"/>
-      <c r="D106" s="15"/>
-      <c r="E106" s="15"/>
-      <c r="F106" s="15"/>
+      <c r="A106" s="10"/>
+      <c r="B106" s="10"/>
+      <c r="C106" s="10"/>
+      <c r="D106" s="10"/>
+      <c r="E106" s="10"/>
+      <c r="F106" s="10"/>
     </row>
     <row r="107" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="15"/>
-      <c r="B107" s="15"/>
-      <c r="C107" s="15"/>
-      <c r="D107" s="15"/>
-      <c r="E107" s="15"/>
-      <c r="F107" s="15"/>
+      <c r="A107" s="10"/>
+      <c r="B107" s="10"/>
+      <c r="C107" s="10"/>
+      <c r="D107" s="10"/>
+      <c r="E107" s="10"/>
+      <c r="F107" s="10"/>
     </row>
     <row r="111" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="2" t="s">
+      <c r="A111" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B111" s="3"/>
-      <c r="C111" s="3"/>
-      <c r="D111" s="3"/>
-      <c r="E111" s="3"/>
-      <c r="F111" s="3"/>
+      <c r="B111" s="15"/>
+      <c r="C111" s="15"/>
+      <c r="D111" s="15"/>
+      <c r="E111" s="15"/>
+      <c r="F111" s="15"/>
     </row>
     <row r="112" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="3"/>
-      <c r="B112" s="3"/>
-      <c r="C112" s="3"/>
-      <c r="D112" s="3"/>
-      <c r="E112" s="3"/>
-      <c r="F112" s="3"/>
+      <c r="A112" s="15"/>
+      <c r="B112" s="15"/>
+      <c r="C112" s="15"/>
+      <c r="D112" s="15"/>
+      <c r="E112" s="15"/>
+      <c r="F112" s="15"/>
     </row>
     <row r="113" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="4"/>
-      <c r="B113" s="3"/>
-      <c r="C113" s="3"/>
-      <c r="D113" s="3"/>
-      <c r="E113" s="3"/>
-      <c r="F113" s="3"/>
+      <c r="A113" s="14"/>
+      <c r="B113" s="15"/>
+      <c r="C113" s="15"/>
+      <c r="D113" s="15"/>
+      <c r="E113" s="15"/>
+      <c r="F113" s="15"/>
     </row>
     <row r="114" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="5" t="s">
+      <c r="A114" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B114" s="6">
+      <c r="B114" s="18">
         <v>6</v>
       </c>
-      <c r="C114" s="3"/>
-      <c r="D114" s="7" t="s">
+      <c r="C114" s="15"/>
+      <c r="D114" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E114" s="6" t="s">
+      <c r="E114" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="F114" s="3"/>
+      <c r="F114" s="15"/>
     </row>
     <row r="115" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="4"/>
-      <c r="B115" s="3"/>
-      <c r="C115" s="3"/>
-      <c r="D115" s="3"/>
-      <c r="E115" s="3"/>
-      <c r="F115" s="3"/>
+      <c r="A115" s="14"/>
+      <c r="B115" s="15"/>
+      <c r="C115" s="15"/>
+      <c r="D115" s="15"/>
+      <c r="E115" s="15"/>
+      <c r="F115" s="15"/>
     </row>
     <row r="116" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="8" t="s">
+      <c r="A116" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B116" s="16" t="s">
+      <c r="B116" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C116" s="17"/>
-      <c r="D116" s="17"/>
-      <c r="E116" s="17"/>
-      <c r="F116" s="18"/>
+      <c r="C116" s="12"/>
+      <c r="D116" s="12"/>
+      <c r="E116" s="12"/>
+      <c r="F116" s="13"/>
     </row>
     <row r="117" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="8" t="s">
+      <c r="A117" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B117" s="9" t="s">
+      <c r="B117" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C117" s="10"/>
-      <c r="D117" s="11" t="s">
+      <c r="C117" s="7"/>
+      <c r="D117" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E117" s="12" t="s">
+      <c r="E117" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="F117" s="10"/>
+      <c r="F117" s="7"/>
     </row>
     <row r="118" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="8" t="s">
+      <c r="A118" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B118" s="9" t="s">
+      <c r="B118" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C118" s="10"/>
-      <c r="D118" s="11" t="s">
+      <c r="C118" s="7"/>
+      <c r="D118" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E118" s="13"/>
-      <c r="F118" s="10"/>
+      <c r="E118" s="8"/>
+      <c r="F118" s="7"/>
     </row>
     <row r="119" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="8" t="s">
+      <c r="A119" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B119" s="9" t="s">
+      <c r="B119" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C119" s="10"/>
-      <c r="D119" s="11" t="s">
+      <c r="C119" s="7"/>
+      <c r="D119" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E119" s="13"/>
-      <c r="F119" s="10"/>
+      <c r="E119" s="8"/>
+      <c r="F119" s="7"/>
     </row>
     <row r="120" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="14" t="s">
+      <c r="A120" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B120" s="14"/>
-      <c r="C120" s="14"/>
-      <c r="D120" s="14"/>
-      <c r="E120" s="14"/>
-      <c r="F120" s="14"/>
+      <c r="B120" s="9"/>
+      <c r="C120" s="9"/>
+      <c r="D120" s="9"/>
+      <c r="E120" s="9"/>
+      <c r="F120" s="9"/>
     </row>
     <row r="121" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="14"/>
-      <c r="B121" s="14"/>
-      <c r="C121" s="14"/>
-      <c r="D121" s="14"/>
-      <c r="E121" s="14"/>
-      <c r="F121" s="14"/>
+      <c r="A121" s="9"/>
+      <c r="B121" s="9"/>
+      <c r="C121" s="9"/>
+      <c r="D121" s="9"/>
+      <c r="E121" s="9"/>
+      <c r="F121" s="9"/>
     </row>
     <row r="122" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="14"/>
-      <c r="B122" s="14"/>
-      <c r="C122" s="14"/>
-      <c r="D122" s="14"/>
-      <c r="E122" s="14"/>
-      <c r="F122" s="14"/>
+      <c r="A122" s="9"/>
+      <c r="B122" s="9"/>
+      <c r="C122" s="9"/>
+      <c r="D122" s="9"/>
+      <c r="E122" s="9"/>
+      <c r="F122" s="9"/>
     </row>
     <row r="123" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="14"/>
-      <c r="B123" s="14"/>
-      <c r="C123" s="14"/>
-      <c r="D123" s="14"/>
-      <c r="E123" s="14"/>
-      <c r="F123" s="14"/>
+      <c r="A123" s="9"/>
+      <c r="B123" s="9"/>
+      <c r="C123" s="9"/>
+      <c r="D123" s="9"/>
+      <c r="E123" s="9"/>
+      <c r="F123" s="9"/>
     </row>
     <row r="124" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="14"/>
-      <c r="B124" s="14"/>
-      <c r="C124" s="14"/>
-      <c r="D124" s="14"/>
-      <c r="E124" s="14"/>
-      <c r="F124" s="14"/>
+      <c r="A124" s="9"/>
+      <c r="B124" s="9"/>
+      <c r="C124" s="9"/>
+      <c r="D124" s="9"/>
+      <c r="E124" s="9"/>
+      <c r="F124" s="9"/>
     </row>
     <row r="125" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="15" t="s">
+      <c r="A125" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B125" s="15"/>
-      <c r="C125" s="15"/>
-      <c r="D125" s="15"/>
-      <c r="E125" s="15"/>
-      <c r="F125" s="15"/>
+      <c r="B125" s="10"/>
+      <c r="C125" s="10"/>
+      <c r="D125" s="10"/>
+      <c r="E125" s="10"/>
+      <c r="F125" s="10"/>
     </row>
     <row r="126" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="15"/>
-      <c r="B126" s="15"/>
-      <c r="C126" s="15"/>
-      <c r="D126" s="15"/>
-      <c r="E126" s="15"/>
-      <c r="F126" s="15"/>
+      <c r="A126" s="10"/>
+      <c r="B126" s="10"/>
+      <c r="C126" s="10"/>
+      <c r="D126" s="10"/>
+      <c r="E126" s="10"/>
+      <c r="F126" s="10"/>
     </row>
     <row r="127" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="15"/>
-      <c r="B127" s="15"/>
-      <c r="C127" s="15"/>
-      <c r="D127" s="15"/>
-      <c r="E127" s="15"/>
-      <c r="F127" s="15"/>
+      <c r="A127" s="10"/>
+      <c r="B127" s="10"/>
+      <c r="C127" s="10"/>
+      <c r="D127" s="10"/>
+      <c r="E127" s="10"/>
+      <c r="F127" s="10"/>
     </row>
     <row r="128" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="15"/>
-      <c r="B128" s="15"/>
-      <c r="C128" s="15"/>
-      <c r="D128" s="15"/>
-      <c r="E128" s="15"/>
-      <c r="F128" s="15"/>
+      <c r="A128" s="10"/>
+      <c r="B128" s="10"/>
+      <c r="C128" s="10"/>
+      <c r="D128" s="10"/>
+      <c r="E128" s="10"/>
+      <c r="F128" s="10"/>
     </row>
     <row r="129" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="15"/>
-      <c r="B129" s="15"/>
-      <c r="C129" s="15"/>
-      <c r="D129" s="15"/>
-      <c r="E129" s="15"/>
-      <c r="F129" s="15"/>
+      <c r="A129" s="10"/>
+      <c r="B129" s="10"/>
+      <c r="C129" s="10"/>
+      <c r="D129" s="10"/>
+      <c r="E129" s="10"/>
+      <c r="F129" s="10"/>
     </row>
     <row r="133" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="2" t="s">
+      <c r="A133" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B133" s="3"/>
-      <c r="C133" s="3"/>
-      <c r="D133" s="3"/>
-      <c r="E133" s="3"/>
-      <c r="F133" s="3"/>
+      <c r="B133" s="15"/>
+      <c r="C133" s="15"/>
+      <c r="D133" s="15"/>
+      <c r="E133" s="15"/>
+      <c r="F133" s="15"/>
     </row>
     <row r="134" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="3"/>
-      <c r="B134" s="3"/>
-      <c r="C134" s="3"/>
-      <c r="D134" s="3"/>
-      <c r="E134" s="3"/>
-      <c r="F134" s="3"/>
+      <c r="A134" s="15"/>
+      <c r="B134" s="15"/>
+      <c r="C134" s="15"/>
+      <c r="D134" s="15"/>
+      <c r="E134" s="15"/>
+      <c r="F134" s="15"/>
     </row>
     <row r="135" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="4"/>
-      <c r="B135" s="3"/>
-      <c r="C135" s="3"/>
-      <c r="D135" s="3"/>
-      <c r="E135" s="3"/>
-      <c r="F135" s="3"/>
+      <c r="A135" s="14"/>
+      <c r="B135" s="15"/>
+      <c r="C135" s="15"/>
+      <c r="D135" s="15"/>
+      <c r="E135" s="15"/>
+      <c r="F135" s="15"/>
     </row>
     <row r="136" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="5" t="s">
+      <c r="A136" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B136" s="6">
+      <c r="B136" s="18">
         <v>7</v>
       </c>
-      <c r="C136" s="3"/>
-      <c r="D136" s="7" t="s">
+      <c r="C136" s="15"/>
+      <c r="D136" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E136" s="6" t="s">
+      <c r="E136" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F136" s="3"/>
+      <c r="F136" s="15"/>
     </row>
     <row r="137" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="4"/>
-      <c r="B137" s="3"/>
-      <c r="C137" s="3"/>
-      <c r="D137" s="3"/>
-      <c r="E137" s="3"/>
-      <c r="F137" s="3"/>
+      <c r="A137" s="14"/>
+      <c r="B137" s="15"/>
+      <c r="C137" s="15"/>
+      <c r="D137" s="15"/>
+      <c r="E137" s="15"/>
+      <c r="F137" s="15"/>
     </row>
     <row r="138" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="8" t="s">
+      <c r="A138" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B138" s="16" t="s">
+      <c r="B138" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C138" s="17"/>
-      <c r="D138" s="17"/>
-      <c r="E138" s="17"/>
-      <c r="F138" s="18"/>
+      <c r="C138" s="12"/>
+      <c r="D138" s="12"/>
+      <c r="E138" s="12"/>
+      <c r="F138" s="13"/>
     </row>
     <row r="139" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="8" t="s">
+      <c r="A139" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B139" s="9" t="s">
+      <c r="B139" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C139" s="10"/>
-      <c r="D139" s="11" t="s">
+      <c r="C139" s="7"/>
+      <c r="D139" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E139" s="12" t="s">
+      <c r="E139" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="F139" s="10"/>
+      <c r="F139" s="7"/>
     </row>
     <row r="140" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="8" t="s">
+      <c r="A140" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B140" s="9" t="s">
+      <c r="B140" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C140" s="10"/>
-      <c r="D140" s="11" t="s">
+      <c r="C140" s="7"/>
+      <c r="D140" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E140" s="13"/>
-      <c r="F140" s="10"/>
+      <c r="E140" s="8"/>
+      <c r="F140" s="7"/>
     </row>
     <row r="141" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="8" t="s">
+      <c r="A141" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B141" s="9" t="s">
+      <c r="B141" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C141" s="10"/>
-      <c r="D141" s="11" t="s">
+      <c r="C141" s="7"/>
+      <c r="D141" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E141" s="13"/>
-      <c r="F141" s="10"/>
+      <c r="E141" s="8"/>
+      <c r="F141" s="7"/>
     </row>
     <row r="142" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="14" t="s">
+      <c r="A142" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B142" s="14"/>
-      <c r="C142" s="14"/>
-      <c r="D142" s="14"/>
-      <c r="E142" s="14"/>
-      <c r="F142" s="14"/>
+      <c r="B142" s="9"/>
+      <c r="C142" s="9"/>
+      <c r="D142" s="9"/>
+      <c r="E142" s="9"/>
+      <c r="F142" s="9"/>
     </row>
     <row r="143" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="14"/>
-      <c r="B143" s="14"/>
-      <c r="C143" s="14"/>
-      <c r="D143" s="14"/>
-      <c r="E143" s="14"/>
-      <c r="F143" s="14"/>
+      <c r="A143" s="9"/>
+      <c r="B143" s="9"/>
+      <c r="C143" s="9"/>
+      <c r="D143" s="9"/>
+      <c r="E143" s="9"/>
+      <c r="F143" s="9"/>
     </row>
     <row r="144" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="14"/>
-      <c r="B144" s="14"/>
-      <c r="C144" s="14"/>
-      <c r="D144" s="14"/>
-      <c r="E144" s="14"/>
-      <c r="F144" s="14"/>
+      <c r="A144" s="9"/>
+      <c r="B144" s="9"/>
+      <c r="C144" s="9"/>
+      <c r="D144" s="9"/>
+      <c r="E144" s="9"/>
+      <c r="F144" s="9"/>
     </row>
     <row r="145" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="14"/>
-      <c r="B145" s="14"/>
-      <c r="C145" s="14"/>
-      <c r="D145" s="14"/>
-      <c r="E145" s="14"/>
-      <c r="F145" s="14"/>
+      <c r="A145" s="9"/>
+      <c r="B145" s="9"/>
+      <c r="C145" s="9"/>
+      <c r="D145" s="9"/>
+      <c r="E145" s="9"/>
+      <c r="F145" s="9"/>
     </row>
     <row r="146" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="14"/>
-      <c r="B146" s="14"/>
-      <c r="C146" s="14"/>
-      <c r="D146" s="14"/>
-      <c r="E146" s="14"/>
-      <c r="F146" s="14"/>
+      <c r="A146" s="9"/>
+      <c r="B146" s="9"/>
+      <c r="C146" s="9"/>
+      <c r="D146" s="9"/>
+      <c r="E146" s="9"/>
+      <c r="F146" s="9"/>
     </row>
     <row r="147" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="15" t="s">
+      <c r="A147" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="B147" s="15"/>
-      <c r="C147" s="15"/>
-      <c r="D147" s="15"/>
-      <c r="E147" s="15"/>
-      <c r="F147" s="15"/>
+      <c r="B147" s="10"/>
+      <c r="C147" s="10"/>
+      <c r="D147" s="10"/>
+      <c r="E147" s="10"/>
+      <c r="F147" s="10"/>
     </row>
     <row r="148" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="15"/>
-      <c r="B148" s="15"/>
-      <c r="C148" s="15"/>
-      <c r="D148" s="15"/>
-      <c r="E148" s="15"/>
-      <c r="F148" s="15"/>
+      <c r="A148" s="10"/>
+      <c r="B148" s="10"/>
+      <c r="C148" s="10"/>
+      <c r="D148" s="10"/>
+      <c r="E148" s="10"/>
+      <c r="F148" s="10"/>
     </row>
     <row r="149" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="15"/>
-      <c r="B149" s="15"/>
-      <c r="C149" s="15"/>
-      <c r="D149" s="15"/>
-      <c r="E149" s="15"/>
-      <c r="F149" s="15"/>
+      <c r="A149" s="10"/>
+      <c r="B149" s="10"/>
+      <c r="C149" s="10"/>
+      <c r="D149" s="10"/>
+      <c r="E149" s="10"/>
+      <c r="F149" s="10"/>
     </row>
     <row r="150" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="15"/>
-      <c r="B150" s="15"/>
-      <c r="C150" s="15"/>
-      <c r="D150" s="15"/>
-      <c r="E150" s="15"/>
-      <c r="F150" s="15"/>
+      <c r="A150" s="10"/>
+      <c r="B150" s="10"/>
+      <c r="C150" s="10"/>
+      <c r="D150" s="10"/>
+      <c r="E150" s="10"/>
+      <c r="F150" s="10"/>
     </row>
     <row r="151" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="15"/>
-      <c r="B151" s="15"/>
-      <c r="C151" s="15"/>
-      <c r="D151" s="15"/>
-      <c r="E151" s="15"/>
-      <c r="F151" s="15"/>
+      <c r="A151" s="10"/>
+      <c r="B151" s="10"/>
+      <c r="C151" s="10"/>
+      <c r="D151" s="10"/>
+      <c r="E151" s="10"/>
+      <c r="F151" s="10"/>
     </row>
     <row r="155" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="2" t="s">
+      <c r="A155" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B155" s="3"/>
-      <c r="C155" s="3"/>
-      <c r="D155" s="3"/>
-      <c r="E155" s="3"/>
-      <c r="F155" s="3"/>
+      <c r="B155" s="15"/>
+      <c r="C155" s="15"/>
+      <c r="D155" s="15"/>
+      <c r="E155" s="15"/>
+      <c r="F155" s="15"/>
     </row>
     <row r="156" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="3"/>
-      <c r="B156" s="3"/>
-      <c r="C156" s="3"/>
-      <c r="D156" s="3"/>
-      <c r="E156" s="3"/>
-      <c r="F156" s="3"/>
+      <c r="A156" s="15"/>
+      <c r="B156" s="15"/>
+      <c r="C156" s="15"/>
+      <c r="D156" s="15"/>
+      <c r="E156" s="15"/>
+      <c r="F156" s="15"/>
     </row>
     <row r="157" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="4"/>
-      <c r="B157" s="3"/>
-      <c r="C157" s="3"/>
-      <c r="D157" s="3"/>
-      <c r="E157" s="3"/>
-      <c r="F157" s="3"/>
+      <c r="A157" s="14"/>
+      <c r="B157" s="15"/>
+      <c r="C157" s="15"/>
+      <c r="D157" s="15"/>
+      <c r="E157" s="15"/>
+      <c r="F157" s="15"/>
     </row>
     <row r="158" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="5" t="s">
+      <c r="A158" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B158" s="6">
+      <c r="B158" s="18">
         <v>8</v>
       </c>
-      <c r="C158" s="3"/>
-      <c r="D158" s="7" t="s">
+      <c r="C158" s="15"/>
+      <c r="D158" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E158" s="6" t="s">
+      <c r="E158" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="F158" s="3"/>
+      <c r="F158" s="15"/>
     </row>
     <row r="159" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="4"/>
-      <c r="B159" s="3"/>
-      <c r="C159" s="3"/>
-      <c r="D159" s="3"/>
-      <c r="E159" s="3"/>
-      <c r="F159" s="3"/>
+      <c r="A159" s="14"/>
+      <c r="B159" s="15"/>
+      <c r="C159" s="15"/>
+      <c r="D159" s="15"/>
+      <c r="E159" s="15"/>
+      <c r="F159" s="15"/>
     </row>
     <row r="160" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="8" t="s">
+      <c r="A160" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B160" s="16" t="s">
+      <c r="B160" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C160" s="17"/>
-      <c r="D160" s="17"/>
-      <c r="E160" s="17"/>
-      <c r="F160" s="18"/>
+      <c r="C160" s="12"/>
+      <c r="D160" s="12"/>
+      <c r="E160" s="12"/>
+      <c r="F160" s="13"/>
     </row>
     <row r="161" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="8" t="s">
+      <c r="A161" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B161" s="9" t="s">
+      <c r="B161" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C161" s="10"/>
-      <c r="D161" s="11" t="s">
+      <c r="C161" s="7"/>
+      <c r="D161" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E161" s="12" t="s">
+      <c r="E161" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="F161" s="10"/>
+      <c r="F161" s="7"/>
     </row>
     <row r="162" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="8" t="s">
+      <c r="A162" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B162" s="9" t="s">
+      <c r="B162" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C162" s="10"/>
-      <c r="D162" s="11" t="s">
+      <c r="C162" s="7"/>
+      <c r="D162" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E162" s="13"/>
-      <c r="F162" s="10"/>
+      <c r="E162" s="8"/>
+      <c r="F162" s="7"/>
     </row>
     <row r="163" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="8" t="s">
+      <c r="A163" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B163" s="9" t="s">
+      <c r="B163" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C163" s="10"/>
-      <c r="D163" s="11" t="s">
+      <c r="C163" s="7"/>
+      <c r="D163" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E163" s="13"/>
-      <c r="F163" s="10"/>
+      <c r="E163" s="8"/>
+      <c r="F163" s="7"/>
     </row>
     <row r="164" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="14" t="s">
+      <c r="A164" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B164" s="14"/>
-      <c r="C164" s="14"/>
-      <c r="D164" s="14"/>
-      <c r="E164" s="14"/>
-      <c r="F164" s="14"/>
+      <c r="B164" s="9"/>
+      <c r="C164" s="9"/>
+      <c r="D164" s="9"/>
+      <c r="E164" s="9"/>
+      <c r="F164" s="9"/>
     </row>
     <row r="165" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="14"/>
-      <c r="B165" s="14"/>
-      <c r="C165" s="14"/>
-      <c r="D165" s="14"/>
-      <c r="E165" s="14"/>
-      <c r="F165" s="14"/>
+      <c r="A165" s="9"/>
+      <c r="B165" s="9"/>
+      <c r="C165" s="9"/>
+      <c r="D165" s="9"/>
+      <c r="E165" s="9"/>
+      <c r="F165" s="9"/>
     </row>
     <row r="166" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="14"/>
-      <c r="B166" s="14"/>
-      <c r="C166" s="14"/>
-      <c r="D166" s="14"/>
-      <c r="E166" s="14"/>
-      <c r="F166" s="14"/>
+      <c r="A166" s="9"/>
+      <c r="B166" s="9"/>
+      <c r="C166" s="9"/>
+      <c r="D166" s="9"/>
+      <c r="E166" s="9"/>
+      <c r="F166" s="9"/>
     </row>
     <row r="167" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="14"/>
-      <c r="B167" s="14"/>
-      <c r="C167" s="14"/>
-      <c r="D167" s="14"/>
-      <c r="E167" s="14"/>
-      <c r="F167" s="14"/>
+      <c r="A167" s="9"/>
+      <c r="B167" s="9"/>
+      <c r="C167" s="9"/>
+      <c r="D167" s="9"/>
+      <c r="E167" s="9"/>
+      <c r="F167" s="9"/>
     </row>
     <row r="168" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="14"/>
-      <c r="B168" s="14"/>
-      <c r="C168" s="14"/>
-      <c r="D168" s="14"/>
-      <c r="E168" s="14"/>
-      <c r="F168" s="14"/>
+      <c r="A168" s="9"/>
+      <c r="B168" s="9"/>
+      <c r="C168" s="9"/>
+      <c r="D168" s="9"/>
+      <c r="E168" s="9"/>
+      <c r="F168" s="9"/>
     </row>
     <row r="169" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="15" t="s">
+      <c r="A169" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="B169" s="15"/>
-      <c r="C169" s="15"/>
-      <c r="D169" s="15"/>
-      <c r="E169" s="15"/>
-      <c r="F169" s="15"/>
+      <c r="B169" s="10"/>
+      <c r="C169" s="10"/>
+      <c r="D169" s="10"/>
+      <c r="E169" s="10"/>
+      <c r="F169" s="10"/>
     </row>
     <row r="170" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="15"/>
-      <c r="B170" s="15"/>
-      <c r="C170" s="15"/>
-      <c r="D170" s="15"/>
-      <c r="E170" s="15"/>
-      <c r="F170" s="15"/>
+      <c r="A170" s="10"/>
+      <c r="B170" s="10"/>
+      <c r="C170" s="10"/>
+      <c r="D170" s="10"/>
+      <c r="E170" s="10"/>
+      <c r="F170" s="10"/>
     </row>
     <row r="171" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="15"/>
-      <c r="B171" s="15"/>
-      <c r="C171" s="15"/>
-      <c r="D171" s="15"/>
-      <c r="E171" s="15"/>
-      <c r="F171" s="15"/>
+      <c r="A171" s="10"/>
+      <c r="B171" s="10"/>
+      <c r="C171" s="10"/>
+      <c r="D171" s="10"/>
+      <c r="E171" s="10"/>
+      <c r="F171" s="10"/>
     </row>
     <row r="172" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="15"/>
-      <c r="B172" s="15"/>
-      <c r="C172" s="15"/>
-      <c r="D172" s="15"/>
-      <c r="E172" s="15"/>
-      <c r="F172" s="15"/>
+      <c r="A172" s="10"/>
+      <c r="B172" s="10"/>
+      <c r="C172" s="10"/>
+      <c r="D172" s="10"/>
+      <c r="E172" s="10"/>
+      <c r="F172" s="10"/>
     </row>
     <row r="173" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="15"/>
-      <c r="B173" s="15"/>
-      <c r="C173" s="15"/>
-      <c r="D173" s="15"/>
-      <c r="E173" s="15"/>
-      <c r="F173" s="15"/>
+      <c r="A173" s="10"/>
+      <c r="B173" s="10"/>
+      <c r="C173" s="10"/>
+      <c r="D173" s="10"/>
+      <c r="E173" s="10"/>
+      <c r="F173" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="112">
-    <mergeCell ref="B163:C163"/>
-    <mergeCell ref="E163:F163"/>
-    <mergeCell ref="A164:F168"/>
-    <mergeCell ref="A169:F173"/>
-    <mergeCell ref="B160:F160"/>
-    <mergeCell ref="A159:F159"/>
-    <mergeCell ref="B161:C161"/>
-    <mergeCell ref="E161:F161"/>
-    <mergeCell ref="B162:C162"/>
-    <mergeCell ref="E162:F162"/>
-    <mergeCell ref="A142:F146"/>
-    <mergeCell ref="A147:F151"/>
-    <mergeCell ref="A155:F156"/>
-    <mergeCell ref="A157:F157"/>
-    <mergeCell ref="B158:C158"/>
-    <mergeCell ref="E158:F158"/>
-    <mergeCell ref="B139:C139"/>
-    <mergeCell ref="E139:F139"/>
-    <mergeCell ref="B140:C140"/>
-    <mergeCell ref="E140:F140"/>
-    <mergeCell ref="B141:C141"/>
-    <mergeCell ref="E141:F141"/>
-    <mergeCell ref="A135:F135"/>
-    <mergeCell ref="B136:C136"/>
-    <mergeCell ref="E136:F136"/>
-    <mergeCell ref="A137:F137"/>
-    <mergeCell ref="B138:F138"/>
-    <mergeCell ref="B119:C119"/>
-    <mergeCell ref="E119:F119"/>
-    <mergeCell ref="A120:F124"/>
-    <mergeCell ref="A125:F129"/>
-    <mergeCell ref="A133:F134"/>
-    <mergeCell ref="A115:F115"/>
-    <mergeCell ref="B117:C117"/>
-    <mergeCell ref="E117:F117"/>
-    <mergeCell ref="B118:C118"/>
-    <mergeCell ref="E118:F118"/>
-    <mergeCell ref="B116:F116"/>
-    <mergeCell ref="A98:F102"/>
-    <mergeCell ref="A103:F107"/>
-    <mergeCell ref="A111:F112"/>
-    <mergeCell ref="A113:F113"/>
-    <mergeCell ref="B114:C114"/>
-    <mergeCell ref="E114:F114"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="E95:F95"/>
-    <mergeCell ref="B96:C96"/>
-    <mergeCell ref="E96:F96"/>
-    <mergeCell ref="B97:C97"/>
-    <mergeCell ref="E97:F97"/>
-    <mergeCell ref="A91:F91"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="E92:F92"/>
-    <mergeCell ref="A93:F93"/>
-    <mergeCell ref="B94:F94"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="E75:F75"/>
-    <mergeCell ref="A76:F80"/>
-    <mergeCell ref="A81:F85"/>
-    <mergeCell ref="A89:F90"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="E73:F73"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="E74:F74"/>
+    <mergeCell ref="A47:F47"/>
+    <mergeCell ref="A37:F41"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="A1:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="A10:F14"/>
+    <mergeCell ref="A15:F19"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="A23:F24"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="B28:F28"/>
     <mergeCell ref="B72:F72"/>
     <mergeCell ref="A67:F68"/>
     <mergeCell ref="A69:F69"/>
@@ -2181,30 +2141,70 @@
     <mergeCell ref="B48:C48"/>
     <mergeCell ref="E48:F48"/>
     <mergeCell ref="A45:F46"/>
-    <mergeCell ref="A47:F47"/>
-    <mergeCell ref="A37:F41"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="A1:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="A10:F14"/>
-    <mergeCell ref="A15:F19"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="A23:F24"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="A27:F27"/>
-    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="A76:F80"/>
+    <mergeCell ref="A81:F85"/>
+    <mergeCell ref="A89:F90"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="E73:F73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="E74:F74"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="E95:F95"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="E96:F96"/>
+    <mergeCell ref="B97:C97"/>
+    <mergeCell ref="E97:F97"/>
+    <mergeCell ref="A91:F91"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="E92:F92"/>
+    <mergeCell ref="A93:F93"/>
+    <mergeCell ref="B94:F94"/>
+    <mergeCell ref="A115:F115"/>
+    <mergeCell ref="B117:C117"/>
+    <mergeCell ref="E117:F117"/>
+    <mergeCell ref="B118:C118"/>
+    <mergeCell ref="E118:F118"/>
+    <mergeCell ref="B116:F116"/>
+    <mergeCell ref="A98:F102"/>
+    <mergeCell ref="A103:F107"/>
+    <mergeCell ref="A111:F112"/>
+    <mergeCell ref="A113:F113"/>
+    <mergeCell ref="B114:C114"/>
+    <mergeCell ref="E114:F114"/>
+    <mergeCell ref="A135:F135"/>
+    <mergeCell ref="B136:C136"/>
+    <mergeCell ref="E136:F136"/>
+    <mergeCell ref="A137:F137"/>
+    <mergeCell ref="B138:F138"/>
+    <mergeCell ref="B119:C119"/>
+    <mergeCell ref="E119:F119"/>
+    <mergeCell ref="A120:F124"/>
+    <mergeCell ref="A125:F129"/>
+    <mergeCell ref="A133:F134"/>
+    <mergeCell ref="A142:F146"/>
+    <mergeCell ref="A147:F151"/>
+    <mergeCell ref="A155:F156"/>
+    <mergeCell ref="A157:F157"/>
+    <mergeCell ref="B158:C158"/>
+    <mergeCell ref="E158:F158"/>
+    <mergeCell ref="B139:C139"/>
+    <mergeCell ref="E139:F139"/>
+    <mergeCell ref="B140:C140"/>
+    <mergeCell ref="E140:F140"/>
+    <mergeCell ref="B141:C141"/>
+    <mergeCell ref="E141:F141"/>
+    <mergeCell ref="B163:C163"/>
+    <mergeCell ref="E163:F163"/>
+    <mergeCell ref="A164:F168"/>
+    <mergeCell ref="A169:F173"/>
+    <mergeCell ref="B160:F160"/>
+    <mergeCell ref="A159:F159"/>
+    <mergeCell ref="B161:C161"/>
+    <mergeCell ref="E161:F161"/>
+    <mergeCell ref="B162:C162"/>
+    <mergeCell ref="E162:F162"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
